--- a/public/import/weekly_template (5).xlsx
+++ b/public/import/weekly_template (5).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIKI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neng-data\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -39,63 +39,125 @@
     <t>NON</t>
   </si>
   <si>
-    <t xml:space="preserve">brefing with tim pajak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">membuat am pm dan to do list harian  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">membuat faktur pajak dan invoice internal/external PT MSI/CV CS </t>
-  </si>
-  <si>
-    <t>membuat faktur pajak dan invoice cv mitra cs tgl 13-17</t>
-  </si>
-  <si>
-    <t>Membuat retur pembelian cv cs supplier PT DST masa mei 2022</t>
-  </si>
-  <si>
-    <t>Membuat retur pembelian cv cs supplier PT MSI masa mei 2022</t>
-  </si>
-  <si>
-    <t>Membuat retur pembelian MSI supplier CV TOP Selular mei 2022</t>
-  </si>
-  <si>
-    <t>Membuat retur pembelian MSI supplier PT DST mei 2022</t>
-  </si>
-  <si>
-    <t>Kroscek buku pembelian cv cs masa mei 2022</t>
-  </si>
-  <si>
-    <t>Upload faktur pajak keluaran masa mei cv cs 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit faktur pajak keluaran cv cs ke customer via email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit faktur pajak keluaran PTMSI  ke customer via email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kordinasi mengenai sj dan retur cs dan mitra with the oci </t>
-  </si>
-  <si>
-    <t>rekap penjualan cv cs masa mei 2022</t>
-  </si>
-  <si>
-    <t>submit am pm , to do list tepat waktu dan log out csa</t>
-  </si>
-  <si>
-    <t>Input nomer seri faktur pajak customer cv cs tgl 1-10 juni 2022</t>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Dashboard Retail &amp; Grosir Dolphin Daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Dashboard Oraimo Daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rekap selltrue oraimo daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kirim AMPM tepat waktu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +180,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,16 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,13 +522,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -468,13 +536,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2022</v>
       </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -482,198 +550,30 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2022</v>
       </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="B5" s="1">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
